--- a/output/init_mle/1_var.xlsx
+++ b/output/init_mle/1_var.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006653076880570676</v>
+        <v>0.01169614568598048</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0006506566911452513</v>
+        <v>0.007950425145436091</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,39 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001279999566422243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.001226735567071276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.0009947253453359481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.001238695209366286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.0006175868268318825</v>
+        <v>0.001667418720098921</v>
       </c>
     </row>
   </sheetData>
